--- a/tests/integration_test_files/config_2.xlsx
+++ b/tests/integration_test_files/config_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0610EE88-0015-924F-A4E0-5504DB668D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FB75A4-66F3-1840-AEC1-1320D857B7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48780" yWindow="4480" windowWidth="33260" windowHeight="19480" firstSheet="5" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="48780" yWindow="4480" windowWidth="33260" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="288">
   <si>
     <t>Epoch</t>
   </si>
@@ -499,12 +499,6 @@
     <t>protocolVersion</t>
   </si>
   <si>
-    <t>protocolAmendment</t>
-  </si>
-  <si>
-    <t>protocolEffectiveDate</t>
-  </si>
-  <si>
     <t>protocolStatus</t>
   </si>
   <si>
@@ -517,18 +511,12 @@
     <t>Something Public</t>
   </si>
   <si>
-    <t>Somethign Clever</t>
-  </si>
-  <si>
     <t>draft</t>
   </si>
   <si>
     <t>Somethign Clever But New</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>businessTherapeuticAreas</t>
   </si>
   <si>
@@ -920,6 +908,12 @@
   </si>
   <si>
     <t>SDR DESCRIPTION</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>CONFIG2</t>
   </si>
 </sst>
 </file>
@@ -991,7 +985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1029,9 +1023,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1047,9 +1038,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1059,10 +1047,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1383,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1399,218 +1387,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="B10" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="B11" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="B12" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="B13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="B14" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="15">
-        <v>40179</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="15">
-        <v>40544</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
@@ -1887,14 +1829,14 @@
     </row>
     <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
         <v>96</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>97</v>
@@ -2157,29 +2099,29 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
         <v>112</v>
@@ -2188,7 +2130,7 @@
         <v>118</v>
       </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2219,60 +2161,60 @@
       <c r="A1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>189</v>
+      <c r="B1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="G3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2304,138 +2246,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>200</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2461,102 +2403,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>204</v>
+      <c r="B1" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2569,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2581,36 +2523,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>24</v>
@@ -2639,22 +2581,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2669,7 +2611,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -2689,7 +2631,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -2719,116 +2661,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="A2" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="B6" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="B8" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="A9" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="A10" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>225</v>
+      <c r="A12" s="16" t="s">
+        <v>221</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -2848,16 +2790,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2865,16 +2807,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2891,16 +2833,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2924,20 +2866,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>268</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2945,16 +2887,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2962,13 +2904,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2995,14 +2937,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>260</v>
+      <c r="A1" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3010,10 +2952,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3021,10 +2963,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3032,10 +2974,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3044,7 +2986,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3073,13 +3015,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>180</v>
+      <c r="A1" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3088,22 +3030,22 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="28"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3123,13 +3065,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>184</v>
+      <c r="A3" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3151,7 +3093,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3173,7 +3115,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3195,7 +3137,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -3217,30 +3159,30 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="17" t="s">
-        <v>222</v>
+      <c r="C7" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="17" t="s">
-        <v>223</v>
+      <c r="C8" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -3254,14 +3196,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>224</v>
+      <c r="C9" s="22" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3343,17 +3285,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>281</v>
+      <c r="A1" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3366,13 +3308,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/config_2.xlsx
+++ b/tests/integration_test_files/config_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FB75A4-66F3-1840-AEC1-1320D857B7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8B2F42-87C9-9B4E-9252-9B989709BEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48780" yWindow="4480" windowWidth="33260" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="48780" yWindow="4480" windowWidth="33260" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="291">
   <si>
     <t>Epoch</t>
   </si>
@@ -319,9 +319,6 @@
     <t>endpointDescription</t>
   </si>
   <si>
-    <t>endpointPurposeDescription</t>
-  </si>
-  <si>
     <t>endpointLevel</t>
   </si>
   <si>
@@ -895,12 +892,6 @@
     <t xml:space="preserve">SDR </t>
   </si>
   <si>
-    <t>OBJ3</t>
-  </si>
-  <si>
-    <t>END13</t>
-  </si>
-  <si>
     <t>SDR ROOT</t>
   </si>
   <si>
@@ -914,6 +905,24 @@
   </si>
   <si>
     <t>CONFIG2</t>
+  </si>
+  <si>
+    <t>objectiveLabel</t>
+  </si>
+  <si>
+    <t>objectiveText</t>
+  </si>
+  <si>
+    <t>endpointLabel</t>
+  </si>
+  <si>
+    <t>endpointText</t>
+  </si>
+  <si>
+    <t>endpointPurpose</t>
+  </si>
+  <si>
+    <t>Duration of supplemental oxygen</t>
   </si>
 </sst>
 </file>
@@ -985,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1006,9 +1015,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1047,10 +1053,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1371,7 +1377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1387,11 +1393,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>287</v>
+      <c r="A1" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1399,10 +1405,10 @@
       <c r="H1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E2"/>
@@ -1411,10 +1417,10 @@
       <c r="H2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E3"/>
@@ -1423,10 +1429,10 @@
       <c r="H3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>59</v>
       </c>
       <c r="E4"/>
@@ -1435,10 +1441,10 @@
       <c r="H4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E5"/>
@@ -1447,11 +1453,11 @@
       <c r="H5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>142</v>
+      <c r="A6" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1459,11 +1465,11 @@
       <c r="H6"/>
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>143</v>
+      <c r="A7" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1471,11 +1477,11 @@
       <c r="H7"/>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>156</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1483,11 +1489,11 @@
       <c r="H8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>150</v>
+      <c r="A9" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1495,11 +1501,11 @@
       <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>151</v>
+      <c r="A10" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -1507,11 +1513,11 @@
       <c r="H10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>152</v>
+      <c r="A11" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1519,11 +1525,11 @@
       <c r="H11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>154</v>
+      <c r="A12" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1531,10 +1537,10 @@
       <c r="H12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E13"/>
@@ -1543,11 +1549,11 @@
       <c r="H13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>149</v>
+      <c r="A14" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1555,50 +1561,50 @@
       <c r="H14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1611,415 +1617,564 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="59.5" customWidth="1"/>
-    <col min="6" max="7" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="70.5" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="K3" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2046,91 +2201,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>134</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" t="s">
         <v>135</v>
-      </c>
-      <c r="E2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
         <v>166</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
         <v>167</v>
       </c>
-      <c r="C5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>168</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" t="s">
         <v>169</v>
-      </c>
-      <c r="F5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2159,62 +2314,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>184</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
         <v>186</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" t="s">
         <v>187</v>
-      </c>
-      <c r="C2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" t="s">
         <v>189</v>
       </c>
-      <c r="B3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>191</v>
-      </c>
-      <c r="G3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2246,138 +2401,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>199</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2403,102 +2558,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>199</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2523,36 +2678,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
         <v>161</v>
-      </c>
-      <c r="B2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>24</v>
@@ -2581,22 +2736,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2611,7 +2766,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -2631,7 +2786,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -2661,116 +2816,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>221</v>
+      <c r="A12" s="15" t="s">
+        <v>220</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -2790,16 +2945,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2807,16 +2962,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2833,16 +2988,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2866,20 +3021,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>267</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2887,16 +3042,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2904,17 +3059,17 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="11"/>
+      <c r="E4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2937,14 +3092,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>255</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2952,10 +3107,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2963,10 +3118,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2974,10 +3129,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2986,7 +3141,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3015,13 +3170,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3030,22 +3185,22 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3065,13 +3220,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3091,9 +3246,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3113,9 +3268,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3135,9 +3290,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -3157,32 +3312,32 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="16" t="s">
-        <v>219</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -3196,14 +3351,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>220</v>
+      <c r="C9" s="21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3285,17 +3440,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>276</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3308,13 +3463,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" t="s">
         <v>278</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3342,7 +3497,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>61</v>
@@ -3356,7 +3511,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -3370,7 +3525,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -3384,7 +3539,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -3398,7 +3553,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>

--- a/tests/integration_test_files/config_2.xlsx
+++ b/tests/integration_test_files/config_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8B2F42-87C9-9B4E-9252-9B989709BEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F12C227-4814-5C4A-B054-A28927D044F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48780" yWindow="4480" windowWidth="33260" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="48780" yWindow="4480" windowWidth="33260" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -205,9 +205,6 @@
     <t>trialTypes</t>
   </si>
   <si>
-    <t>line|city|district|state|postal_code|GBR</t>
-  </si>
-  <si>
     <t>DUNS</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t>AP1234</t>
   </si>
   <si>
-    <t>Somewhere|In a City|In a District|In a big state|12345|FRA</t>
-  </si>
-  <si>
     <t>organisationAddress</t>
   </si>
   <si>
@@ -923,6 +917,12 @@
   </si>
   <si>
     <t>Duration of supplemental oxygen</t>
+  </si>
+  <si>
+    <t>line|district|city|state|postal_code|GBR</t>
+  </si>
+  <si>
+    <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
 </sst>
 </file>
@@ -1053,10 +1053,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1394,10 +1394,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1433,7 +1433,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -1445,7 +1445,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -1454,10 +1454,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1478,10 +1478,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1502,10 +1502,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1619,7 +1619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1639,85 +1639,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>87</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1726,16 +1726,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1744,16 +1744,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1762,16 +1762,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1780,16 +1780,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1798,16 +1798,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1816,16 +1816,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1834,16 +1834,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -1852,16 +1852,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1870,16 +1870,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1888,16 +1888,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2202,90 +2202,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
         <v>132</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>136</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" t="s">
         <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
         <v>165</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>166</v>
       </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
         <v>167</v>
-      </c>
-      <c r="E5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2314,62 +2314,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" t="s">
         <v>185</v>
-      </c>
-      <c r="B2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>189</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2402,137 +2402,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>197</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2559,101 +2559,101 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2678,36 +2678,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
         <v>160</v>
-      </c>
-      <c r="B1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>24</v>
@@ -2722,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2752,7 +2752,7 @@
         <v>35</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2766,33 +2766,33 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2817,10 +2817,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -2841,41 +2841,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="B4" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -2886,7 +2886,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -2897,7 +2897,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -2945,16 +2945,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2962,16 +2962,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2988,16 +2988,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3022,19 +3022,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>265</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3042,16 +3042,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3059,13 +3059,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3093,13 +3093,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>253</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3107,10 +3107,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3118,10 +3118,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3129,10 +3129,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3171,10 +3171,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -3195,10 +3195,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -3221,10 +3221,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -3315,29 +3315,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -3358,7 +3358,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3369,7 +3369,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -3441,16 +3441,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>274</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3463,13 +3463,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3497,69 +3497,69 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3586,38 +3586,38 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
         <v>77</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3625,30 +3625,30 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/config_2.xlsx
+++ b/tests/integration_test_files/config_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F12C227-4814-5C4A-B054-A28927D044F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65E796C-6010-4644-82CD-B05ADFDB60D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48780" yWindow="4480" windowWidth="33260" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="48760" yWindow="4480" windowWidth="33260" windowHeight="19480" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
     <sheet name="studyDesignActivities" sheetId="16" r:id="rId7"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId8"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId9"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId10"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId11"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId12"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId13"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId14"/>
-    <sheet name="configuration" sheetId="10" r:id="rId15"/>
+    <sheet name="studyDesignInterventions" sheetId="17" r:id="rId8"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId9"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
+    <sheet name="configuration" sheetId="10" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="329">
   <si>
     <t>Epoch</t>
   </si>
@@ -232,36 +233,18 @@
     <t>type</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>codes</t>
   </si>
   <si>
-    <t>An indication</t>
-  </si>
-  <si>
     <t>SNOMED:12345=Indication1</t>
   </si>
   <si>
-    <t>An intervention</t>
-  </si>
-  <si>
-    <t>ICD-10: X = Y, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>SNOMED:345678=Indication2</t>
   </si>
   <si>
-    <t>ICD-10: DD=CC, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>populationDescription</t>
   </si>
   <si>
@@ -923,13 +906,145 @@
   </si>
   <si>
     <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Indication One</t>
+  </si>
+  <si>
+    <t>Indication 1</t>
+  </si>
+  <si>
+    <t>Indication Two</t>
+  </si>
+  <si>
+    <t>Indication 2</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>Int Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 1</t>
+  </si>
+  <si>
+    <t>SPONSOR: A=B</t>
+  </si>
+  <si>
+    <t>M11: role1=role1</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>FDA: A=B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig1=desig_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Day</t>
+  </si>
+  <si>
+    <t>Admin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 1</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>12 mg</t>
+  </si>
+  <si>
+    <t>10 DAYS PER MONTH</t>
+  </si>
+  <si>
+    <t>Dur desc 1</t>
+  </si>
+  <si>
+    <t>Will vary becuase we say so</t>
+  </si>
+  <si>
+    <t>14 %</t>
+  </si>
+  <si>
+    <t>Int Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 2</t>
+  </si>
+  <si>
+    <t>M11: role2=role2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig2=desig_2</t>
+  </si>
+  <si>
+    <t>Admin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 2</t>
+  </si>
+  <si>
+    <t>Dur desc 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -967,6 +1082,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -994,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1053,14 +1174,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1394,10 +1517,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1454,10 +1577,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1466,10 +1589,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1478,10 +1601,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1490,10 +1613,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1502,10 +1625,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -1514,10 +1637,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1526,10 +1649,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1538,7 +1661,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -1550,10 +1673,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1616,6 +1739,95 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -1639,85 +1851,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1726,16 +1938,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1744,16 +1956,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1762,16 +1974,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1780,16 +1992,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1798,16 +2010,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1816,16 +2028,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1834,16 +2046,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -1852,16 +2064,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1870,16 +2082,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1888,16 +2100,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2182,7 +2394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -2202,90 +2414,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>111</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>136</v>
-      </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
         <v>109</v>
       </c>
-      <c r="G5" t="s">
-        <v>115</v>
-      </c>
       <c r="H5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2293,7 +2505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -2314,62 +2526,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2382,7 +2594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -2402,137 +2614,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>191</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2541,7 +2753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2559,101 +2771,101 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2662,7 +2874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -2678,36 +2890,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>24</v>
@@ -2722,7 +2934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
@@ -2766,13 +2978,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2786,13 +2998,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2817,10 +3029,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -2828,10 +3040,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -2841,41 +3053,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="B3" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="B4" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="B5" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -2886,7 +3098,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -2897,7 +3109,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -2905,10 +3117,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -2916,7 +3128,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -2925,7 +3137,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -2945,16 +3157,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2962,16 +3174,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2988,16 +3200,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3022,19 +3234,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3042,16 +3254,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3059,13 +3271,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3093,13 +3305,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3107,10 +3319,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3118,10 +3330,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3129,10 +3341,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3141,7 +3353,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3171,10 +3383,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -3195,10 +3407,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -3221,10 +3433,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -3315,29 +3527,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -3358,7 +3570,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3441,16 +3653,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3463,13 +3675,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3482,84 +3694,212 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9999E-F56C-6C42-8851-C5D5724F7706}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G1" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="D2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K2" t="s">
+        <v>313</v>
+      </c>
+      <c r="L2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M2" t="s">
+        <v>315</v>
+      </c>
+      <c r="N2" t="s">
+        <v>316</v>
+      </c>
+      <c r="O2" t="s">
+        <v>317</v>
+      </c>
+      <c r="P2" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>182</v>
+      </c>
+      <c r="R2" t="s">
+        <v>319</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>321</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>322</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
+        <v>306</v>
+      </c>
+      <c r="E3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K3" t="s">
+        <v>326</v>
+      </c>
+      <c r="L3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M3" t="s">
+        <v>315</v>
+      </c>
+      <c r="N3" t="s">
+        <v>316</v>
+      </c>
+      <c r="O3" t="s">
+        <v>317</v>
+      </c>
+      <c r="P3" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>182</v>
+      </c>
+      <c r="R3" t="s">
+        <v>319</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3568,87 +3908,60 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2">
         <v>100</v>
       </c>
+      <c r="B2" t="s">
+        <v>286</v>
+      </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>20</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>288</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>289</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/config_2.xlsx
+++ b/tests/integration_test_files/config_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65E796C-6010-4644-82CD-B05ADFDB60D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBDFA93-061A-9141-A753-C6D8E4A91116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48760" yWindow="4480" windowWidth="33260" windowHeight="19480" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="48760" yWindow="4480" windowWidth="33260" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="332">
   <si>
     <t>Epoch</t>
   </si>
@@ -248,45 +248,18 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>Pop 1</t>
-  </si>
-  <si>
-    <t>plannedNumberOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMinimumAgeOfParticipants</t>
-  </si>
-  <si>
     <t>18 years</t>
   </si>
   <si>
-    <t>40 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>60 years</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Pop 3</t>
-  </si>
-  <si>
     <t>70 years</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>plannedMaximumAgeOfParticipants</t>
-  </si>
-  <si>
     <t>objectiveDescription</t>
   </si>
   <si>
@@ -1038,6 +1011,42 @@
   </si>
   <si>
     <t>Dur desc 2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>plannedMinimumAge</t>
+  </si>
+  <si>
+    <t>plannedMaximumAge</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>POP1</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>COHORT1</t>
+  </si>
+  <si>
+    <t>30 years</t>
+  </si>
+  <si>
+    <t>COHORT2</t>
+  </si>
+  <si>
+    <t>31 years</t>
   </si>
 </sst>
 </file>
@@ -1170,20 +1179,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1517,10 +1526,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1577,10 +1586,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1589,10 +1598,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1601,10 +1610,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1613,10 +1622,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1625,10 +1634,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -1637,10 +1646,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1649,10 +1658,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1661,7 +1670,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -1673,10 +1682,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1740,86 +1749,96 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3" t="s">
         <v>65</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H3" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1851,85 +1870,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1938,16 +1957,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1956,16 +1975,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1974,16 +1993,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1992,16 +2011,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2010,16 +2029,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2028,16 +2047,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2046,16 +2065,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2064,16 +2083,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2082,16 +2101,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2100,16 +2119,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2414,90 +2433,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2526,62 +2545,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2614,137 +2633,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2771,101 +2790,101 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2890,36 +2909,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>24</v>
@@ -2978,13 +2997,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2998,13 +3017,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3029,115 +3048,115 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+        <v>229</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+        <v>230</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="B4" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="B7" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+        <v>156</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+        <v>157</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -3157,16 +3176,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3174,16 +3193,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3200,16 +3219,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3234,19 +3253,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3254,16 +3273,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3271,13 +3290,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3305,13 +3324,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3319,10 +3338,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3330,10 +3349,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3341,10 +3360,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3353,7 +3372,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3383,10 +3402,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -3397,20 +3416,20 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="25"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -3433,10 +3452,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -3527,29 +3546,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -3570,7 +3589,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3653,16 +3672,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3675,13 +3694,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3697,7 +3716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9999E-F56C-6C42-8851-C5D5724F7706}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -3727,179 +3746,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="P1" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>294</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="G2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K2" t="s">
         <v>304</v>
       </c>
-      <c r="C2" t="s">
+      <c r="L2" t="s">
         <v>305</v>
       </c>
-      <c r="D2" t="s">
+      <c r="M2" t="s">
         <v>306</v>
       </c>
-      <c r="E2" t="s">
+      <c r="N2" t="s">
         <v>307</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="O2" t="s">
         <v>308</v>
       </c>
-      <c r="G2" t="s">
+      <c r="P2" t="s">
         <v>309</v>
       </c>
-      <c r="H2" t="s">
+      <c r="Q2" t="s">
+        <v>173</v>
+      </c>
+      <c r="R2" t="s">
         <v>310</v>
       </c>
-      <c r="I2" t="s">
+      <c r="S2" s="23" t="s">
         <v>311</v>
-      </c>
-      <c r="J2" t="s">
-        <v>312</v>
-      </c>
-      <c r="K2" t="s">
-        <v>313</v>
-      </c>
-      <c r="L2" t="s">
-        <v>314</v>
-      </c>
-      <c r="M2" t="s">
-        <v>315</v>
-      </c>
-      <c r="N2" t="s">
-        <v>316</v>
-      </c>
-      <c r="O2" t="s">
-        <v>317</v>
-      </c>
-      <c r="P2" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R2" t="s">
-        <v>319</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="G3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I3" t="s">
+        <v>302</v>
+      </c>
+      <c r="J3" t="s">
+        <v>316</v>
+      </c>
+      <c r="K3" t="s">
+        <v>317</v>
+      </c>
+      <c r="L3" t="s">
+        <v>318</v>
+      </c>
+      <c r="M3" t="s">
         <v>306</v>
       </c>
-      <c r="E3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F3" s="26" t="s">
+      <c r="N3" t="s">
+        <v>307</v>
+      </c>
+      <c r="O3" t="s">
         <v>308</v>
       </c>
-      <c r="G3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="P3" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>173</v>
+      </c>
+      <c r="R3" t="s">
+        <v>310</v>
+      </c>
+      <c r="S3" s="23" t="s">
         <v>311</v>
-      </c>
-      <c r="J3" t="s">
-        <v>325</v>
-      </c>
-      <c r="K3" t="s">
-        <v>326</v>
-      </c>
-      <c r="L3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M3" t="s">
-        <v>315</v>
-      </c>
-      <c r="N3" t="s">
-        <v>316</v>
-      </c>
-      <c r="O3" t="s">
-        <v>317</v>
-      </c>
-      <c r="P3" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>182</v>
-      </c>
-      <c r="R3" t="s">
-        <v>319</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3924,13 +3943,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
@@ -3938,13 +3957,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>62</v>
@@ -3952,13 +3971,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>

--- a/tests/integration_test_files/config_2.xlsx
+++ b/tests/integration_test_files/config_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBDFA93-061A-9141-A753-C6D8E4A91116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493FFACC-F8AF-934A-9C49-C7877B7F07A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48760" yWindow="4480" windowWidth="33260" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="48760" yWindow="4480" windowWidth="33260" windowHeight="19480" firstSheet="7" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="334">
   <si>
     <t>Epoch</t>
   </si>
@@ -1047,6 +1047,12 @@
   </si>
   <si>
     <t>31 years</t>
+  </si>
+  <si>
+    <t>EMPTY NONE</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1191,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1751,7 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -2895,10 +2901,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2942,6 +2948,14 @@
       </c>
       <c r="B5" s="6" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3072,34 +3086,34 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -3219,16 +3233,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/config_2.xlsx
+++ b/tests/integration_test_files/config_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493FFACC-F8AF-934A-9C49-C7877B7F07A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1225ABE-9657-2243-8152-513D0B23F4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48760" yWindow="4480" windowWidth="33260" windowHeight="19480" firstSheet="7" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="48760" yWindow="4480" windowWidth="33260" windowHeight="19480" firstSheet="7" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="331">
   <si>
     <t>Epoch</t>
   </si>
@@ -248,18 +248,12 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>18 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>70 years</t>
-  </si>
-  <si>
     <t>objectiveDescription</t>
   </si>
   <si>
@@ -1022,12 +1016,6 @@
     <t>plannedEnrollmentNumber</t>
   </si>
   <si>
-    <t>plannedMinimumAge</t>
-  </si>
-  <si>
-    <t>plannedMaximumAge</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -1040,19 +1028,22 @@
     <t>COHORT1</t>
   </si>
   <si>
-    <t>30 years</t>
-  </si>
-  <si>
     <t>COHORT2</t>
   </si>
   <si>
-    <t>31 years</t>
-  </si>
-  <si>
     <t>EMPTY NONE</t>
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>plannedAge</t>
+  </si>
+  <si>
+    <t>18 .. 30 years</t>
+  </si>
+  <si>
+    <t>31 .. 70 years</t>
   </si>
 </sst>
 </file>
@@ -1191,10 +1182,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1532,10 +1523,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1592,10 +1583,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1604,10 +1595,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1616,10 +1607,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1628,10 +1619,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1640,10 +1631,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -1652,10 +1643,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1664,10 +1655,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1676,7 +1667,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -1688,10 +1679,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1755,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1768,45 +1759,42 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="B2" t="s">
         <v>322</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B2" t="s">
-        <v>326</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1814,37 +1802,30 @@
       <c r="F2">
         <v>120</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" t="s">
         <v>330</v>
-      </c>
-      <c r="G4" t="s">
-        <v>331</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1876,85 +1857,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1963,16 +1944,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1981,16 +1962,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1999,16 +1980,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2017,16 +1998,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2035,16 +2016,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2053,16 +2034,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2071,16 +2052,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2089,16 +2070,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2107,16 +2088,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2125,16 +2106,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2439,90 +2420,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
         <v>115</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>119</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" t="s">
         <v>116</v>
-      </c>
-      <c r="D2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
         <v>148</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>149</v>
       </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" t="s">
         <v>150</v>
-      </c>
-      <c r="E5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2551,62 +2532,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" t="s">
         <v>168</v>
-      </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>172</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2639,137 +2620,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>180</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2796,101 +2777,101 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2903,7 +2884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2915,36 +2896,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
         <v>143</v>
-      </c>
-      <c r="B1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>24</v>
@@ -2952,10 +2933,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B6" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3011,13 +2992,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3031,13 +3012,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3062,10 +3043,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -3073,10 +3054,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3086,41 +3067,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="B5" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -3131,7 +3112,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -3142,7 +3123,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -3150,10 +3131,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -3161,7 +3142,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -3170,7 +3151,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -3190,16 +3171,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3207,16 +3188,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3233,16 +3214,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3267,19 +3248,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>248</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3287,16 +3268,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3304,13 +3285,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3338,13 +3319,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>236</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3352,10 +3333,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3363,10 +3344,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3374,10 +3355,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3386,7 +3367,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3416,10 +3397,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -3440,10 +3421,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -3466,10 +3447,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -3560,29 +3541,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -3603,7 +3584,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3686,16 +3667,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3708,13 +3689,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3760,179 +3741,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>292</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" t="s">
         <v>295</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>296</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>298</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" t="s">
         <v>299</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>300</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>301</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>302</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>303</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>304</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>305</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>306</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>307</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>171</v>
+      </c>
+      <c r="R2" t="s">
         <v>308</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="23" t="s">
         <v>309</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>173</v>
-      </c>
-      <c r="R2" t="s">
-        <v>310</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" t="s">
         <v>312</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H3" t="s">
         <v>313</v>
       </c>
-      <c r="D3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J3" t="s">
         <v>314</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="G3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>315</v>
       </c>
-      <c r="I3" t="s">
-        <v>302</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>316</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>304</v>
+      </c>
+      <c r="N3" t="s">
+        <v>305</v>
+      </c>
+      <c r="O3" t="s">
+        <v>306</v>
+      </c>
+      <c r="P3" t="s">
         <v>317</v>
       </c>
-      <c r="L3" t="s">
-        <v>318</v>
-      </c>
-      <c r="M3" t="s">
-        <v>306</v>
-      </c>
-      <c r="N3" t="s">
-        <v>307</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>171</v>
+      </c>
+      <c r="R3" t="s">
         <v>308</v>
       </c>
-      <c r="P3" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>173</v>
-      </c>
-      <c r="R3" t="s">
-        <v>310</v>
-      </c>
       <c r="S3" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3957,13 +3938,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
@@ -3971,13 +3952,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>62</v>
@@ -3985,13 +3966,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>

--- a/tests/integration_test_files/config_2.xlsx
+++ b/tests/integration_test_files/config_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1225ABE-9657-2243-8152-513D0B23F4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69292C5F-8A4D-A444-823D-2E3D2CE49E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48760" yWindow="4480" windowWidth="33260" windowHeight="19480" firstSheet="7" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="48760" yWindow="4480" windowWidth="33260" windowHeight="19480" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -19,16 +19,17 @@
     <sheet name="studyDesignArms" sheetId="15" r:id="rId4"/>
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
-    <sheet name="studyDesignActivities" sheetId="16" r:id="rId7"/>
-    <sheet name="studyDesignInterventions" sheetId="17" r:id="rId8"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId9"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
-    <sheet name="configuration" sheetId="10" r:id="rId16"/>
+    <sheet name="studyDesignTiming" sheetId="18" r:id="rId7"/>
+    <sheet name="studyDesignActivities" sheetId="16" r:id="rId8"/>
+    <sheet name="studyDesignInterventions" sheetId="17" r:id="rId9"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId10"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId11"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId12"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId13"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId14"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId15"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId16"/>
+    <sheet name="configuration" sheetId="10" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,10 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="331">
-  <si>
-    <t>Epoch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="357">
   <si>
     <t>Screening</t>
   </si>
@@ -62,15 +60,6 @@
     <t>Treatment</t>
   </si>
   <si>
-    <t>Cycle</t>
-  </si>
-  <si>
-    <t>Cycle End Rule</t>
-  </si>
-  <si>
-    <t>A:</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -80,9 +69,6 @@
     <t>Child Activity</t>
   </si>
   <si>
-    <t>N: 0..2 Days</t>
-  </si>
-  <si>
     <t>Demographics</t>
   </si>
   <si>
@@ -95,36 +81,12 @@
     <t>15 min</t>
   </si>
   <si>
-    <t>P: +24 Hours</t>
-  </si>
-  <si>
-    <t>0..4 Hours</t>
-  </si>
-  <si>
-    <t>N: Pre Dose</t>
-  </si>
-  <si>
     <t>Day 24</t>
   </si>
   <si>
     <t>Day 35</t>
   </si>
   <si>
-    <t>P: +7 Days</t>
-  </si>
-  <si>
-    <t>-3..3 Days</t>
-  </si>
-  <si>
-    <t>First Cycle Start</t>
-  </si>
-  <si>
-    <t>Cycle Period</t>
-  </si>
-  <si>
-    <t>Timing</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -647,12 +609,6 @@
     <t>E5</t>
   </si>
   <si>
-    <t>Encounter xref</t>
-  </si>
-  <si>
-    <t>Window</t>
-  </si>
-  <si>
     <t>BC/Procedure/Timeline</t>
   </si>
   <si>
@@ -1044,6 +1000,129 @@
   </si>
   <si>
     <t>31 .. 70 years</t>
+  </si>
+  <si>
+    <t>SCREEN</t>
+  </si>
+  <si>
+    <t>PRE DOSE</t>
+  </si>
+  <si>
+    <t>DOSE</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>Pre Dose</t>
+  </si>
+  <si>
+    <t>Dosing</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>(EXIT)</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>timingValue</t>
+  </si>
+  <si>
+    <t>toFrom</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>TIM1</t>
+  </si>
+  <si>
+    <t>Screening timing</t>
+  </si>
+  <si>
+    <t>BEFORE</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>S2S</t>
+  </si>
+  <si>
+    <t>TIM2</t>
+  </si>
+  <si>
+    <t>Pre dose timing</t>
+  </si>
+  <si>
+    <t>Pre dose</t>
+  </si>
+  <si>
+    <t>0..4 hours</t>
+  </si>
+  <si>
+    <t>TIM3</t>
+  </si>
+  <si>
+    <t>Dosing anchor</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>1 Day</t>
+  </si>
+  <si>
+    <t>TIM4</t>
+  </si>
+  <si>
+    <t>24 Hour timing</t>
+  </si>
+  <si>
+    <t>AFTER</t>
+  </si>
+  <si>
+    <t>24 Hours</t>
+  </si>
+  <si>
+    <t>TIM5</t>
+  </si>
+  <si>
+    <t>Follow up timing</t>
+  </si>
+  <si>
+    <t>7 Days</t>
+  </si>
+  <si>
+    <t>-3..3 days</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1182,13 +1261,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1208,9 +1284,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1248,7 +1324,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1354,7 +1430,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1496,7 +1572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1523,10 +1599,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1535,10 +1611,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -1547,10 +1623,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -1559,10 +1635,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -1571,10 +1647,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -1583,10 +1659,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1595,10 +1671,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1607,10 +1683,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1619,10 +1695,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1631,10 +1707,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -1643,10 +1719,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1655,10 +1731,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1667,10 +1743,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -1679,10 +1755,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1745,10 +1821,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -1765,36 +1903,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1803,29 +1941,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="G3" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="G4" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -1833,7 +1971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -1857,85 +1995,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1944,16 +2082,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1962,16 +2100,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1980,16 +2118,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1998,16 +2136,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2016,16 +2154,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2034,16 +2172,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2052,16 +2190,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2070,16 +2208,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2088,16 +2226,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2106,16 +2244,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2400,7 +2538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -2420,90 +2558,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2511,7 +2649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -2532,62 +2670,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2600,7 +2738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -2620,137 +2758,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2759,7 +2897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2777,101 +2915,101 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2880,7 +3018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -2896,47 +3034,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2963,62 +3101,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3043,10 +3181,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -3054,10 +3192,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3065,43 +3203,43 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+        <v>32</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+        <v>34</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -3109,10 +3247,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -3120,10 +3258,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -3131,10 +3269,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -3142,7 +3280,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -3151,53 +3289,53 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3214,16 +3352,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3248,50 +3386,50 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3319,55 +3457,55 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3383,13 +3521,13 @@
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10:B11"/>
+      <selection pane="bottomRight" sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
     <col min="4" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="10.83203125" style="1"/>
@@ -3397,258 +3535,435 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>249</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>321</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>322</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>323</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>21</v>
+        <v>259</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>324</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>323</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>4</v>
+        <v>326</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>317</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>318</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>320</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>198</v>
+        <v>329</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>194</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83261BE8-D8CF-A046-9292-145A51AC5A01}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="9" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G5" t="s">
+        <v>352</v>
+      </c>
+      <c r="H5" t="s">
+        <v>340</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G6" t="s">
+        <v>355</v>
+      </c>
+      <c r="H6" t="s">
+        <v>340</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3667,35 +3982,35 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3707,7 +4022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9999E-F56C-6C42-8851-C5D5724F7706}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -3741,241 +4056,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="F1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="P1" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>289</v>
-      </c>
       <c r="Q1" s="21" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L2" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N2" t="s">
+        <v>290</v>
+      </c>
+      <c r="O2" t="s">
+        <v>291</v>
+      </c>
+      <c r="P2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>158</v>
+      </c>
+      <c r="R2" t="s">
         <v>293</v>
       </c>
-      <c r="C2" t="s">
+      <c r="S2" s="23" t="s">
         <v>294</v>
-      </c>
-      <c r="D2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="G2" t="s">
-        <v>298</v>
-      </c>
-      <c r="H2" t="s">
-        <v>299</v>
-      </c>
-      <c r="I2" t="s">
-        <v>300</v>
-      </c>
-      <c r="J2" t="s">
-        <v>301</v>
-      </c>
-      <c r="K2" t="s">
-        <v>302</v>
-      </c>
-      <c r="L2" t="s">
-        <v>303</v>
-      </c>
-      <c r="M2" t="s">
-        <v>304</v>
-      </c>
-      <c r="N2" t="s">
-        <v>305</v>
-      </c>
-      <c r="O2" t="s">
-        <v>306</v>
-      </c>
-      <c r="P2" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>171</v>
-      </c>
-      <c r="R2" t="s">
-        <v>308</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="E3" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="G3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H3" t="s">
         <v>298</v>
       </c>
-      <c r="H3" t="s">
-        <v>313</v>
-      </c>
       <c r="I3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J3" t="s">
+        <v>299</v>
+      </c>
+      <c r="K3" t="s">
         <v>300</v>
       </c>
-      <c r="J3" t="s">
-        <v>314</v>
-      </c>
-      <c r="K3" t="s">
-        <v>315</v>
-      </c>
       <c r="L3" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="M3" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="N3" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="O3" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="P3" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="Q3" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="R3" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>63</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/config_2.xlsx
+++ b/tests/integration_test_files/config_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69292C5F-8A4D-A444-823D-2E3D2CE49E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BB9F53-091C-3E48-B6E5-E115AAC770F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48760" yWindow="4480" windowWidth="33260" windowHeight="19480" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="48760" yWindow="4480" windowWidth="33260" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="356">
   <si>
     <t>Screening</t>
   </si>
@@ -897,18 +897,12 @@
     <t>SPONSOR: A=B</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>FDA: A=B</t>
   </si>
   <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
@@ -945,12 +939,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -1123,6 +1111,15 @@
   </si>
   <si>
     <t>-3..3 days</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
   </si>
 </sst>
 </file>
@@ -1284,9 +1281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1324,7 +1321,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1430,7 +1427,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1572,7 +1569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1903,7 +1900,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>249</v>
@@ -1915,13 +1912,13 @@
         <v>259</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>52</v>
@@ -1929,10 +1926,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1946,24 +1943,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3071,10 +3068,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3544,19 +3541,19 @@
         <v>249</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -3573,13 +3570,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>195</v>
@@ -3596,7 +3593,7 @@
         <v>259</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3605,7 +3602,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>195</v>
@@ -3617,46 +3614,46 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3668,7 +3665,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3690,7 +3687,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>180</v>
@@ -3781,7 +3778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83261BE8-D8CF-A046-9292-145A51AC5A01}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -3807,123 +3804,123 @@
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I3" t="s">
         <v>340</v>
-      </c>
-      <c r="I3" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -3931,31 +3928,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C6" t="s">
         <v>195</v>
       </c>
       <c r="D6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G6" t="s">
         <v>351</v>
       </c>
-      <c r="E6" t="s">
-        <v>320</v>
-      </c>
-      <c r="F6" t="s">
-        <v>318</v>
-      </c>
-      <c r="G6" t="s">
-        <v>355</v>
-      </c>
       <c r="H6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -4026,8 +4023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9999E-F56C-6C42-8851-C5D5724F7706}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4127,49 +4124,49 @@
         <v>280</v>
       </c>
       <c r="E2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" t="s">
         <v>282</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I2" t="s">
         <v>283</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>284</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>285</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>286</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>287</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>288</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>289</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>290</v>
-      </c>
-      <c r="O2" t="s">
-        <v>291</v>
-      </c>
-      <c r="P2" t="s">
-        <v>292</v>
       </c>
       <c r="Q2" t="s">
         <v>158</v>
       </c>
       <c r="R2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -4177,58 +4174,58 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D3" t="s">
         <v>280</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J3" t="s">
+        <v>295</v>
+      </c>
+      <c r="K3" t="s">
+        <v>296</v>
+      </c>
+      <c r="L3" t="s">
         <v>297</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="G3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>287</v>
+      </c>
+      <c r="N3" t="s">
+        <v>288</v>
+      </c>
+      <c r="O3" t="s">
+        <v>289</v>
+      </c>
+      <c r="P3" t="s">
         <v>298</v>
-      </c>
-      <c r="I3" t="s">
-        <v>285</v>
-      </c>
-      <c r="J3" t="s">
-        <v>299</v>
-      </c>
-      <c r="K3" t="s">
-        <v>300</v>
-      </c>
-      <c r="L3" t="s">
-        <v>301</v>
-      </c>
-      <c r="M3" t="s">
-        <v>289</v>
-      </c>
-      <c r="N3" t="s">
-        <v>290</v>
-      </c>
-      <c r="O3" t="s">
-        <v>291</v>
-      </c>
-      <c r="P3" t="s">
-        <v>302</v>
       </c>
       <c r="Q3" t="s">
         <v>158</v>
       </c>
       <c r="R3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/config_2.xlsx
+++ b/tests/integration_test_files/config_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BB9F53-091C-3E48-B6E5-E115AAC770F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8E66AB-DC89-F74F-94CB-16A988054971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48760" yWindow="4480" windowWidth="33260" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="48760" yWindow="4480" windowWidth="33260" windowHeight="19480" firstSheet="3" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -231,9 +231,6 @@
     <t>The primary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
     <t>Clinical status assessed using a 7-category ordinal scale at Day 28</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>The secondary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Study Secondary Objective</t>
-  </si>
-  <si>
     <t>Time to clinical improvement (TTCI) defined as a National Early Warning Score 2 (NEWS2) of &lt;=2 maintained for 24 hours</t>
   </si>
   <si>
@@ -1120,6 +1114,12 @@
   </si>
   <si>
     <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -1258,10 +1258,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1281,9 +1281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1321,7 +1321,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1427,7 +1427,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1569,7 +1569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1596,10 +1596,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1668,10 +1668,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1680,10 +1680,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1692,10 +1692,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -1716,10 +1716,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>17</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1834,13 +1834,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>48</v>
@@ -1848,13 +1848,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>49</v>
@@ -1862,13 +1862,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>50</v>
@@ -1900,25 +1900,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>52</v>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1943,24 +1943,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" t="s">
         <v>304</v>
       </c>
-      <c r="B4" t="s">
-        <v>306</v>
-      </c>
       <c r="G4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -1972,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1992,34 +1992,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>55</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>56</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>253</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>255</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>57</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2035,42 +2035,42 @@
         <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>59</v>
+        <v>354</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>63</v>
+        <v>355</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2079,16 +2079,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2097,16 +2097,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2115,16 +2115,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2133,16 +2133,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2151,16 +2151,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2169,16 +2169,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2187,16 +2187,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2205,16 +2205,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2223,16 +2223,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2241,16 +2241,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2555,90 +2555,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
         <v>101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
         <v>133</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>134</v>
       </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" t="s">
         <v>135</v>
-      </c>
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2667,62 +2667,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" t="s">
         <v>153</v>
-      </c>
-      <c r="B2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>157</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2755,137 +2755,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>165</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2912,101 +2912,101 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3031,36 +3031,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
         <v>128</v>
-      </c>
-      <c r="B1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>11</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3127,13 +3127,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3147,13 +3147,13 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3178,10 +3178,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -3189,10 +3189,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3202,41 +3202,41 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="B5" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -3247,7 +3247,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -3258,7 +3258,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -3266,10 +3266,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>30</v>
@@ -3306,16 +3306,16 @@
         <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3323,16 +3323,16 @@
         <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3349,16 +3349,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3383,19 +3383,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>231</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3403,16 +3403,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3420,13 +3420,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3454,13 +3454,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>219</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3468,10 +3468,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3479,10 +3479,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3490,10 +3490,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3532,36 +3532,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>47</v>
@@ -3570,30 +3570,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3602,10 +3602,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3614,46 +3614,46 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3665,7 +3665,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3687,22 +3687,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3713,7 +3713,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3792,135 +3792,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>329</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H2" t="s">
         <v>334</v>
-      </c>
-      <c r="E2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G2" t="s">
-        <v>335</v>
-      </c>
-      <c r="H2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" t="s">
         <v>337</v>
       </c>
-      <c r="B3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C3" t="s">
-        <v>339</v>
-      </c>
       <c r="D3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" t="s">
         <v>341</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G4" t="s">
         <v>342</v>
-      </c>
-      <c r="C4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D4" t="s">
-        <v>343</v>
-      </c>
-      <c r="E4" t="s">
-        <v>314</v>
-      </c>
-      <c r="F4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G4" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" t="s">
         <v>345</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G5" t="s">
         <v>346</v>
       </c>
-      <c r="C5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F5" t="s">
-        <v>314</v>
-      </c>
-      <c r="G5" t="s">
-        <v>348</v>
-      </c>
       <c r="H5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -3928,31 +3928,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G6" t="s">
         <v>349</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>334</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>350</v>
-      </c>
-      <c r="C6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E6" t="s">
-        <v>316</v>
-      </c>
-      <c r="F6" t="s">
-        <v>314</v>
-      </c>
-      <c r="G6" t="s">
-        <v>351</v>
-      </c>
-      <c r="H6" t="s">
-        <v>336</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3979,16 +3979,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>240</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4001,13 +4001,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4023,7 +4023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9999E-F56C-6C42-8851-C5D5724F7706}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
@@ -4053,179 +4053,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>275</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" t="s">
         <v>278</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>280</v>
       </c>
-      <c r="E2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I2" t="s">
         <v>281</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>282</v>
       </c>
-      <c r="H2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>283</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>284</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>285</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>286</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>287</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>288</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>156</v>
+      </c>
+      <c r="R2" t="s">
         <v>289</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="23" t="s">
         <v>290</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>158</v>
-      </c>
-      <c r="R2" t="s">
-        <v>291</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H3" t="s">
+        <v>353</v>
+      </c>
+      <c r="I3" t="s">
         <v>281</v>
       </c>
-      <c r="G3" t="s">
-        <v>282</v>
-      </c>
-      <c r="H3" t="s">
-        <v>355</v>
-      </c>
-      <c r="I3" t="s">
-        <v>283</v>
-      </c>
       <c r="J3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L3" t="s">
         <v>295</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>285</v>
+      </c>
+      <c r="N3" t="s">
+        <v>286</v>
+      </c>
+      <c r="O3" t="s">
+        <v>287</v>
+      </c>
+      <c r="P3" t="s">
         <v>296</v>
       </c>
-      <c r="L3" t="s">
-        <v>297</v>
-      </c>
-      <c r="M3" t="s">
-        <v>287</v>
-      </c>
-      <c r="N3" t="s">
-        <v>288</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>156</v>
+      </c>
+      <c r="R3" t="s">
         <v>289</v>
       </c>
-      <c r="P3" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>158</v>
-      </c>
-      <c r="R3" t="s">
-        <v>291</v>
-      </c>
       <c r="S3" s="23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/config_2.xlsx
+++ b/tests/integration_test_files/config_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8E66AB-DC89-F74F-94CB-16A988054971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564E2238-5BB8-004A-913B-88BBE9FD634B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48760" yWindow="4480" windowWidth="33260" windowHeight="19480" firstSheet="3" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="48760" yWindow="4480" windowWidth="33260" windowHeight="19480" firstSheet="3" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="356">
   <si>
     <t>Screening</t>
   </si>
@@ -1258,10 +1258,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1972,7 +1972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -3202,34 +3202,34 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -3349,16 +3349,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3514,11 +3514,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" sqref="A1:H1048576"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3717,9 +3717,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -3743,9 +3741,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>

--- a/tests/integration_test_files/config_2.xlsx
+++ b/tests/integration_test_files/config_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4074FB-FF86-EE4F-808A-402A8547C4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B83ACE-5E4A-E440-89A7-46A456A42EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48740" yWindow="4480" windowWidth="33260" windowHeight="19480" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="359">
   <si>
     <t>name</t>
   </si>
@@ -1107,6 +1107,12 @@
   </si>
   <si>
     <t>populationSubset</t>
+  </si>
+  <si>
+    <t>intercurrentEventText</t>
+  </si>
+  <si>
+    <t>ICE Text</t>
   </si>
 </sst>
 </file>
@@ -2459,10 +2465,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2473,9 +2479,10 @@
     <col min="6" max="6" width="28.1640625" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="61.83203125" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>274</v>
       </c>
@@ -2503,8 +2510,11 @@
       <c r="I1" s="20" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>281</v>
       </c>
@@ -2532,18 +2542,27 @@
       <c r="I2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>289</v>
       </c>
@@ -2570,6 +2589,9 @@
       </c>
       <c r="I5" t="s">
         <v>293</v>
+      </c>
+      <c r="J5" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/config_2.xlsx
+++ b/tests/integration_test_files/config_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57712525-0FAF-8245-8648-08A6D9A5FEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07488F4B-BB77-6F46-BC16-1C985209B475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52960" yWindow="500" windowWidth="48660" windowHeight="27460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52560" yWindow="500" windowWidth="48660" windowHeight="27460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="362">
   <si>
     <t>name</t>
   </si>
@@ -210,9 +210,6 @@
     <t>BASIC SCIENCE,    DEVICE FEASIBILITY</t>
   </si>
   <si>
-    <t>trialTypes</t>
-  </si>
-  <si>
     <t>Efficacy Study</t>
   </si>
   <si>
@@ -1120,6 +1117,12 @@
   </si>
   <si>
     <t>organization</t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t>trialSubTypes</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1575,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1790,176 +1793,176 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="K1" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>182</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
         <v>184</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>185</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>186</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>187</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="G2" t="s">
         <v>189</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>190</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>191</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>192</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>193</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>194</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>195</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>196</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>197</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>198</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>166</v>
+      </c>
+      <c r="R2" t="s">
         <v>199</v>
       </c>
-      <c r="Q2" t="s">
-        <v>167</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="22" t="s">
         <v>200</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
         <v>202</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>203</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" t="s">
         <v>204</v>
       </c>
-      <c r="D3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="G3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J3" t="s">
         <v>205</v>
       </c>
-      <c r="I3" t="s">
-        <v>192</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>206</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>207</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N3" t="s">
+        <v>196</v>
+      </c>
+      <c r="O3" t="s">
+        <v>197</v>
+      </c>
+      <c r="P3" t="s">
         <v>208</v>
       </c>
-      <c r="M3" t="s">
-        <v>196</v>
-      </c>
-      <c r="N3" t="s">
-        <v>197</v>
-      </c>
-      <c r="O3" t="s">
-        <v>198</v>
-      </c>
-      <c r="P3" t="s">
-        <v>209</v>
-      </c>
       <c r="Q3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R3" t="s">
+        <v>199</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>200</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1987,41 +1990,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" t="s">
         <v>210</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>211</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
         <v>214</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>215</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2050,36 +2053,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>221</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
         <v>223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>224</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2088,29 +2091,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" t="s">
         <v>226</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" t="s">
         <v>227</v>
-      </c>
-      <c r="G3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" t="s">
         <v>229</v>
-      </c>
-      <c r="G4" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2142,85 +2145,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="K1" s="20" t="s">
         <v>240</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>245</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>251</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -2229,16 +2232,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2247,16 +2250,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2265,16 +2268,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2283,16 +2286,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2301,16 +2304,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -2319,16 +2322,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2337,16 +2340,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -2355,16 +2358,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -2373,16 +2376,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2391,16 +2394,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2705,114 +2708,114 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>356</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" t="s">
         <v>281</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>282</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" t="s">
         <v>283</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>284</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" t="s">
         <v>285</v>
       </c>
-      <c r="G2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I2" t="s">
-        <v>286</v>
-      </c>
       <c r="J2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" t="s">
         <v>289</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" t="s">
         <v>290</v>
       </c>
-      <c r="C5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>291</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I5" t="s">
         <v>292</v>
       </c>
-      <c r="G5" t="s">
-        <v>202</v>
-      </c>
-      <c r="H5" t="s">
-        <v>251</v>
-      </c>
-      <c r="I5" t="s">
-        <v>293</v>
-      </c>
       <c r="J5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -2841,62 +2844,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" t="s">
         <v>300</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>301</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>302</v>
-      </c>
-      <c r="E2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" t="s">
         <v>304</v>
       </c>
-      <c r="B3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>305</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>306</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" t="s">
         <v>307</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2929,137 +2932,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>314</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -3085,101 +3088,101 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>332</v>
-      </c>
       <c r="D1" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>314</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3203,47 +3206,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" t="s">
         <v>347</v>
-      </c>
-      <c r="B1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" t="s">
         <v>351</v>
-      </c>
-      <c r="B4" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" t="s">
         <v>354</v>
-      </c>
-      <c r="B6" t="s">
-        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -3278,7 +3281,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>30</v>
@@ -3315,7 +3318,7 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
@@ -3336,7 +3339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3351,7 +3354,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3367,7 +3370,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3377,10 +3380,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3458,10 +3461,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>57</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -3469,10 +3472,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -3480,10 +3483,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -3491,80 +3494,109 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="7" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="7" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="B17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B9:E9"/>
+  <mergeCells count="13">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
@@ -3573,6 +3605,11 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3597,50 +3634,50 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3668,55 +3705,55 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>86</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3746,128 +3783,128 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="C4" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="C5" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="C6" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3879,103 +3916,103 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>127</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4004,164 +4041,164 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
         <v>139</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
         <v>141</v>
       </c>
-      <c r="E2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>142</v>
-      </c>
-      <c r="H2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
         <v>144</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>145</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" t="s">
         <v>146</v>
       </c>
-      <c r="D3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" t="s">
         <v>147</v>
-      </c>
-      <c r="H3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
         <v>149</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
         <v>150</v>
       </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" t="s">
         <v>151</v>
-      </c>
-      <c r="E4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
         <v>153</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
         <v>154</v>
       </c>
-      <c r="C5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" t="s">
         <v>155</v>
       </c>
-      <c r="E5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" t="s">
         <v>156</v>
-      </c>
-      <c r="H5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
         <v>158</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" t="s">
         <v>159</v>
       </c>
-      <c r="C6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="H6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4188,35 +4225,35 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>164</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" t="s">
         <v>167</v>
-      </c>
-      <c r="D3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/config_2.xlsx
+++ b/tests/integration_test_files/config_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07488F4B-BB77-6F46-BC16-1C985209B475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097F5C35-0DD4-1B47-8E12-F30756BDE405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52560" yWindow="500" windowWidth="48660" windowHeight="27460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -768,9 +768,6 @@
     <t>The primary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
     <t>END1</t>
   </si>
   <si>
@@ -786,9 +783,6 @@
     <t>The secondary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Secondary Objective</t>
-  </si>
-  <si>
     <t>END2</t>
   </si>
   <si>
@@ -1123,6 +1117,12 @@
   </si>
   <si>
     <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -2125,7 +2125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -2188,42 +2188,42 @@
         <v>242</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>243</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>244</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>248</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>250</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -2232,16 +2232,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2250,16 +2250,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2268,16 +2268,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2286,16 +2286,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2304,16 +2304,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -2322,16 +2322,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2340,16 +2340,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -2358,16 +2358,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -2376,16 +2376,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2394,16 +2394,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2708,114 +2708,114 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="D1" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>276</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>278</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>235</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" t="s">
         <v>280</v>
-      </c>
-      <c r="B2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C2" t="s">
-        <v>282</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G2" t="s">
         <v>183</v>
       </c>
       <c r="H2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>228</v>
       </c>
       <c r="E5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G5" t="s">
         <v>201</v>
       </c>
       <c r="H5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -2844,62 +2844,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>296</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" t="s">
         <v>299</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>300</v>
-      </c>
-      <c r="C2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" t="s">
         <v>303</v>
       </c>
-      <c r="B3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>304</v>
-      </c>
-      <c r="D3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E3" t="s">
-        <v>306</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>166</v>
       </c>
       <c r="G3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2932,28 +2932,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>312</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2964,22 +2964,22 @@
         <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2990,16 +2990,16 @@
         <v>64</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3010,19 +3010,19 @@
         <v>146</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3030,19 +3030,19 @@
         <v>123</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3050,19 +3050,19 @@
         <v>124</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3088,19 +3088,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3111,13 +3111,13 @@
         <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3128,30 +3128,30 @@
         <v>64</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3162,27 +3162,27 @@
         <v>108</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -3206,36 +3206,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" t="s">
         <v>346</v>
-      </c>
-      <c r="B2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>131</v>
@@ -3243,10 +3243,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3318,7 +3318,7 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
@@ -3354,7 +3354,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3370,7 +3370,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3382,7 +3382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>57</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="24"/>
@@ -3597,6 +3597,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
@@ -3605,11 +3610,6 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/config_2.xlsx
+++ b/tests/integration_test_files/config_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097F5C35-0DD4-1B47-8E12-F30756BDE405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A426218-7CC7-0747-8553-5A3C4A059FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>ClinicalTrials.gov</t>
   </si>
   <si>
-    <t>Study Registry</t>
-  </si>
-  <si>
     <t>NCT12345678</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>ACME Pharma</t>
   </si>
   <si>
-    <t>Clinical Study Sponsor</t>
-  </si>
-  <si>
     <t>AP1234</t>
   </si>
   <si>
@@ -1123,6 +1117,12 @@
   </si>
   <si>
     <t>Trial Secondary Objective</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Company</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
   </si>
 </sst>
 </file>
@@ -1793,176 +1793,176 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="K1" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>180</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
         <v>183</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>184</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>185</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="H2" t="s">
         <v>188</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>189</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>190</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>191</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>192</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>193</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>194</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>195</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>196</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>164</v>
+      </c>
+      <c r="R2" t="s">
         <v>197</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>166</v>
-      </c>
-      <c r="R2" t="s">
-        <v>199</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
         <v>201</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" t="s">
         <v>202</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" t="s">
         <v>203</v>
       </c>
-      <c r="D3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>204</v>
       </c>
-      <c r="I3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>205</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P3" t="s">
         <v>206</v>
       </c>
-      <c r="L3" t="s">
-        <v>207</v>
-      </c>
-      <c r="M3" t="s">
-        <v>195</v>
-      </c>
-      <c r="N3" t="s">
-        <v>196</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>164</v>
+      </c>
+      <c r="R3" t="s">
         <v>197</v>
       </c>
-      <c r="P3" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>166</v>
-      </c>
-      <c r="R3" t="s">
-        <v>199</v>
-      </c>
       <c r="S3" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1990,41 +1990,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
         <v>209</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="C2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" t="s">
         <v>213</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="C3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2053,36 +2053,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>219</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2091,29 +2091,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" t="s">
         <v>225</v>
-      </c>
-      <c r="B3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2125,7 +2125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -2145,85 +2145,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="K1" s="20" t="s">
         <v>238</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -2232,16 +2232,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2250,16 +2250,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2268,16 +2268,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2286,16 +2286,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2304,16 +2304,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -2322,16 +2322,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2340,16 +2340,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -2358,16 +2358,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -2376,16 +2376,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2394,16 +2394,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2708,114 +2708,114 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="D1" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="H1" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>277</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" t="s">
         <v>278</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" t="s">
         <v>279</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>280</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I2" t="s">
         <v>281</v>
       </c>
-      <c r="F2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I2" t="s">
-        <v>283</v>
-      </c>
       <c r="J2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" t="s">
         <v>286</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>287</v>
       </c>
-      <c r="C5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" t="s">
         <v>288</v>
       </c>
-      <c r="F5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I5" t="s">
-        <v>290</v>
-      </c>
       <c r="J5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -2844,62 +2844,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>294</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" t="s">
         <v>297</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>298</v>
-      </c>
-      <c r="C2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
         <v>301</v>
       </c>
-      <c r="B3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>302</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" t="s">
         <v>303</v>
-      </c>
-      <c r="E3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2932,137 +2932,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>310</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3088,101 +3088,101 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3206,47 +3206,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" t="s">
         <v>344</v>
-      </c>
-      <c r="B2" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -3258,8 +3258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436EB663-0310-164E-8DDB-B51955A49FA6}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3281,7 +3281,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>30</v>
@@ -3304,30 +3304,30 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>361</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
       <c r="E3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F3" t="s">
         <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3354,12 +3354,12 @@
         <v>31</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3395,10 +3395,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -3406,10 +3406,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3417,10 +3417,10 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -3428,10 +3428,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -3450,10 +3450,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -3461,10 +3461,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -3472,10 +3472,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -3483,10 +3483,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="24"/>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="24"/>
@@ -3534,53 +3534,53 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3597,11 +3597,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
@@ -3610,6 +3605,11 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3634,50 +3634,50 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3705,55 +3705,55 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3783,128 +3783,128 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="D2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="C4" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="C5" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="C6" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3916,103 +3916,103 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>125</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4041,164 +4041,164 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="E1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
         <v>139</v>
       </c>
-      <c r="C2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" t="s">
         <v>140</v>
-      </c>
-      <c r="E2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
         <v>143</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
         <v>144</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" t="s">
         <v>145</v>
-      </c>
-      <c r="D3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
         <v>148</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="s">
         <v>149</v>
-      </c>
-      <c r="C4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
         <v>152</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
         <v>153</v>
       </c>
-      <c r="C5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" t="s">
         <v>154</v>
-      </c>
-      <c r="E5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" t="s">
         <v>157</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" t="s">
-        <v>159</v>
-      </c>
-      <c r="H6" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4225,35 +4225,35 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" t="s">
         <v>165</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
